--- a/ft_data/bitcoin_price_info.xlsx
+++ b/ft_data/bitcoin_price_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3182"/>
+  <dimension ref="A1:G3183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79995,6 +79995,31 @@
         <v>831836978396.02</v>
       </c>
     </row>
+    <row r="3183">
+      <c r="A3183" t="inlineStr">
+        <is>
+          <t>2022-01-13</t>
+        </is>
+      </c>
+      <c r="B3183" t="n">
+        <v>43946.74171773507</v>
+      </c>
+      <c r="C3183" t="n">
+        <v>44278.42325661266</v>
+      </c>
+      <c r="D3183" t="n">
+        <v>42447.04415206434</v>
+      </c>
+      <c r="E3183" t="n">
+        <v>42591.57225803064</v>
+      </c>
+      <c r="F3183" t="n">
+        <v>47691135081.85</v>
+      </c>
+      <c r="G3183" t="n">
+        <v>806189762638.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
